--- a/src/main/resources/input_excel_file/booking/Invoice.xlsx
+++ b/src/main/resources/input_excel_file/booking/Invoice.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="E_Invoice" sheetId="1" r:id="rId1"/>
-    <sheet name="Invoice_Detail_Cost" sheetId="11" r:id="rId2"/>
-    <sheet name="Invoice_Detail_Agency_Paid" sheetId="12" r:id="rId3"/>
+    <sheet name="E_Invoice_Payment_Id_Player1" sheetId="13" r:id="rId2"/>
+    <sheet name="E_Invoice_Payment_ID_Player2" sheetId="14" r:id="rId3"/>
+    <sheet name="E_Invoice_Payment_ID_Player3" sheetId="15" r:id="rId4"/>
+    <sheet name="E_Invoice_Payment_ID_Player4" sheetId="16" r:id="rId5"/>
+    <sheet name="Invoice_Detail_Cost" sheetId="11" r:id="rId6"/>
+    <sheet name="Invoice_Detail_Agency_Paid" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="101">
   <si>
     <t>tc_id</t>
   </si>
@@ -191,6 +195,75 @@
   </si>
   <si>
     <t>E_INVOICE_003</t>
+  </si>
+  <si>
+    <t>expect_must_pay</t>
+  </si>
+  <si>
+    <t>expect_cash</t>
+  </si>
+  <si>
+    <t>expect_qr_code</t>
+  </si>
+  <si>
+    <t>expect_qr_vnpay_total</t>
+  </si>
+  <si>
+    <t>expect_vnpay_gateway</t>
+  </si>
+  <si>
+    <t>expect_card</t>
+  </si>
+  <si>
+    <t>expect_card_vnpay_total</t>
+  </si>
+  <si>
+    <t>expect_transfer</t>
+  </si>
+  <si>
+    <t>expect_debit</t>
+  </si>
+  <si>
+    <t>expect_room_charge</t>
+  </si>
+  <si>
+    <t>expect_shared_revenue</t>
+  </si>
+  <si>
+    <t>expect_com</t>
+  </si>
+  <si>
+    <t>expect_ent</t>
+  </si>
+  <si>
+    <t>expect_oc</t>
+  </si>
+  <si>
+    <t>expect_house_use</t>
+  </si>
+  <si>
+    <t>expect_payment_on_behalf</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra chia tiền cho từng payment_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_expect.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER4</t>
   </si>
   <si>
     <t>payment_id</t>
@@ -275,7 +348,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +376,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -802,137 +883,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,9 +1041,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -972,10 +1050,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,7 +1595,7 @@
   <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -1530,10 +1608,10 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.7047619047619" style="1" customWidth="1"/>
     <col min="8" max="12" width="17.8095238095238" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8095238095238" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.8095238095238" style="11" customWidth="1"/>
     <col min="14" max="14" width="19.9904761904762" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="12" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
     <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="19" max="20" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.2857142857143" style="1" customWidth="1"/>
@@ -1562,106 +1640,106 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1687,7 +1765,7 @@
       <c r="G2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="8"/>
@@ -1791,7 +1869,7 @@
       <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="8"/>
@@ -1895,7 +1973,7 @@
       <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="8"/>
@@ -1986,10 +2064,1022 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AK6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="12" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="17" max="19" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4857142857143" style="1" customWidth="1"/>
+    <col min="24" max="37" width="18.6380952380952" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:37">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="8">
+        <v>200</v>
+      </c>
+      <c r="V2" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="31:31">
+      <c r="AE6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AK6"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="12" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="17" max="19" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4857142857143" style="1" customWidth="1"/>
+    <col min="24" max="37" width="18.6380952380952" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:37">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="8">
+        <v>200</v>
+      </c>
+      <c r="V2" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="31:31">
+      <c r="AE6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AK6"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AK2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="12" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="17" max="19" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4857142857143" style="1" customWidth="1"/>
+    <col min="24" max="37" width="18.6380952380952" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:37">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="8">
+        <v>200</v>
+      </c>
+      <c r="V2" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="31:31">
+      <c r="AE6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AK6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="12" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.9333333333333" style="11" customWidth="1"/>
+    <col min="17" max="19" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4857142857143" style="1" customWidth="1"/>
+    <col min="24" max="37" width="18.6380952380952" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:37">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="8">
+        <v>200</v>
+      </c>
+      <c r="V2" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="31:31">
+      <c r="AE6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
@@ -2031,33 +3121,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>56</v>
+      <c r="K1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>42</v>
@@ -2066,13 +3156,13 @@
         <v>43</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J2" s="8">
         <v>200</v>
@@ -2086,16 +3176,16 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>42</v>
@@ -2104,13 +3194,13 @@
         <v>43</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J3" s="8">
         <v>200</v>
@@ -2124,16 +3214,16 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>42</v>
@@ -2142,13 +3232,13 @@
         <v>43</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J4" s="8">
         <v>200</v>
@@ -2162,16 +3252,16 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>42</v>
@@ -2180,13 +3270,13 @@
         <v>43</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J5" s="8">
         <v>200</v>
@@ -2204,13 +3294,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2252,33 +3342,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>56</v>
+      <c r="K1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>42</v>
@@ -2287,13 +3377,13 @@
         <v>43</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="J2" s="8">
         <v>200</v>
